--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value517.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value517.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.347899450365933</v>
+        <v>1.260331749916077</v>
       </c>
       <c r="B1">
-        <v>2.258475720706822</v>
+        <v>2.527748346328735</v>
       </c>
       <c r="C1">
-        <v>2.404300968242265</v>
+        <v>3.661454200744629</v>
       </c>
       <c r="D1">
-        <v>2.168285839186184</v>
+        <v>2.887630701065063</v>
       </c>
       <c r="E1">
-        <v>0.6928008545061265</v>
+        <v>1.070904493331909</v>
       </c>
     </row>
   </sheetData>
